--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="3400" windowWidth="31340" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Pinball: An I2C LCD + PSoC</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Pinball: The iOS App part 2</t>
   </si>
   <si>
-    <t>Pinball: A better LCD + component</t>
-  </si>
-  <si>
     <t>Pinball: A swtich Matrix component (part 1)</t>
   </si>
   <si>
@@ -114,13 +111,40 @@
     <t>Pinball: A swtich Matrix component (part 3)</t>
   </si>
   <si>
-    <t>screen shots</t>
-  </si>
-  <si>
     <t>Pinball: The Printed Circuit Board 1.0 (Part 1)</t>
   </si>
   <si>
     <t>Pinball: The Printed Circuit Board 1.0 (Part 2)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Pinball: The Music and Beeping (part 1)</t>
+  </si>
+  <si>
+    <t>Pinball: The Music and Beeping (part 2)</t>
   </si>
 </sst>
 </file>
@@ -152,12 +176,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,25 +219,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -542,7 +588,7 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -556,420 +602,499 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>42618</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <f>D2+1</f>
         <v>42619</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D27" si="0">D3+1</f>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D10" si="0">D3+1</f>
         <v>42620</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>42621</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>42622</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>42623</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42625</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>42624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>42625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>42626</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>42627</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>9.5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <f>D10+1</f>
+        <v>42628</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+        <v>9.5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D28" si="1">D11+1</f>
+        <v>42629</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>42630</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>42631</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>42632</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>42633</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>42634</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>42635</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>42636</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>42637</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>42638</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>42639</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>42640</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>42641</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>42642</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>42643</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>42644</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>42628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>42629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>42630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>42631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>42632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>42633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>42634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>42636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>42637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>42638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>42640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>42641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>42642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>42643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="1"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:4">
       <c r="B38" s="1"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:4">
       <c r="B43" s="1"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:4">
       <c r="B48" s="1"/>
+      <c r="D48">
+        <f>18/(1+10/60)</f>
+        <v>15.428571428571427</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D27">
-    <sortState ref="A2:D27">
-      <sortCondition ref="A1:A27"/>
+    <sortState ref="A2:D28">
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:D28">
